--- a/data/142/NAV/3. Registered unemployed. Perce_historical.xlsx
+++ b/data/142/NAV/3. Registered unemployed. Perce_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WC2"/>
+  <dimension ref="A1:WO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3367,6 +3367,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5174,6 +5234,24 @@
       <c r="WC2" t="n">
         <v>2.2</v>
       </c>
+      <c r="WD2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="WE2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="WF2" t="n">
+        <v>2</v>
+      </c>
+      <c r="WG2" t="inlineStr"/>
+      <c r="WH2" t="inlineStr"/>
+      <c r="WI2" t="inlineStr"/>
+      <c r="WJ2" t="inlineStr"/>
+      <c r="WK2" t="inlineStr"/>
+      <c r="WL2" t="inlineStr"/>
+      <c r="WM2" t="inlineStr"/>
+      <c r="WN2" t="inlineStr"/>
+      <c r="WO2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
